--- a/biology/Médecine/Escalpelamento/Escalpelamento.xlsx
+++ b/biology/Médecine/Escalpelamento/Escalpelamento.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Escalpelamento est l'éradication du cuir chevelu du crâne, dans la plupart des cas en raison de moteurs de bateaux.
 Le nom vient du portugais escalpo qui signifie cuir chevelu.
@@ -515,7 +527,9 @@
           <t>Casuistique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les accidents se passent lorsque les victimes approchent du moteur du bateau pour effectuer des travaux ordinaires et elles sont happées par les cheveux. Le mouvement à grande vitesse de rotation du moteur fait rouler les cheveux autour de lui, en tirant tout ou partie du cuir chevelu de la victime, tout ensemble avec oreilles, sourcils et partie de la peau du visage et du cou.
 Ce type d'accident conduit à des déformations graves, dont la récupération est longue et douloureuse, et dans certains cas entraînent la mort.
@@ -547,11 +561,13 @@
           <t>Actions sociales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 14 janvier 2010, le Président du Brésil, Luiz Inácio Lula da Silva, établit, par la loi fédérale 12.199/2010, le 28 août, comme Journée nationale pour le contrôle et la prévention du escalpelamento (portugais: Dia Nacional de Combate e Prevenção ao Escalpelamento).
 Le 20 janvier 2011, à Belém, capitale de l'État du Pará, au Brésil, où vivent le plus grand nombre de victimes de l'Amazonie, est mis en place la première ONG vouée à elles. 
-Le but de l’ONG[1] est de donner une aide psychologique et favoriser leur réinsertion sur le marché du travail après la chirurgie et le rétablissement.
+Le but de l’ONG est de donner une aide psychologique et favoriser leur réinsertion sur le marché du travail après la chirurgie et le rétablissement.
 Au 2012, l’ONG compte près de 100 personnes assistées.
 </t>
         </is>
